--- a/MatAn Eksamen retning/PointMatAnEksamen.xlsx
+++ b/MatAn Eksamen retning/PointMatAnEksamen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -129,6 +129,9 @@
   <si>
     <t xml:space="preserve">&lt;50</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hyppighed:</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +228,12 @@
         <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -267,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,7 +317,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,7 +397,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -509,11 +522,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="33850200"/>
-        <c:axId val="7839091"/>
+        <c:axId val="15367829"/>
+        <c:axId val="62566191"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33850200"/>
+        <c:axId val="15367829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,14 +599,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7839091"/>
+        <c:crossAx val="62566191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7839091"/>
+        <c:axId val="62566191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +688,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33850200"/>
+        <c:crossAx val="15367829"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -754,8 +767,8 @@
   </sheetPr>
   <dimension ref="C5:X65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J55" activeCellId="0" sqref="J55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K61" activeCellId="0" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3417,57 +3430,66 @@
         <v>43</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="0" t="n">
+      <c r="D59" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10" t="n">
         <f aca="false" t="array" ref="E59:E65">FREQUENCY(U7:U49,E55:J55)</f>
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" s="0" t="n">
+      <c r="D60" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E61" s="0" t="n">
+      <c r="D61" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="0" t="n">
+      <c r="D62" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="0" t="n">
+      <c r="D63" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="10" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="0" t="n">
+      <c r="D64" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="0" t="n">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="n">
         <v>0</v>
       </c>
     </row>
